--- a/docs/zh/security_statement/public_urls.xlsx
+++ b/docs/zh/security_statement/public_urls.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11055"/>
+    <workbookView windowWidth="21000" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>类型</t>
   </si>
@@ -172,13 +172,22 @@
     <t>用途说明</t>
   </si>
   <si>
-    <t>msit/msmodelslim/config/config.ini</t>
+    <t>msmodelslim/config/config.ini</t>
   </si>
   <si>
-    <t>https://gitee.com/ascend/msit</t>
+    <t>https://gitcode.com/Ascend/msmodelslim</t>
   </si>
   <si>
     <t>代码仓地址</t>
+  </si>
+  <si>
+    <t>msmodelslim/model/hunyuan_video/model_adapter.py</t>
+  </si>
+  <si>
+    <t>https://ai.meta.com/static-resource/movie-gen-research-paper</t>
+  </si>
+  <si>
+    <t>线性二次调度进行流量匹配论文地址</t>
   </si>
 </sst>
 </file>
@@ -221,6 +230,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -236,14 +253,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -717,7 +726,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,26 +854,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1232,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:N3171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1259,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1270,441 +1282,449 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="3:3">
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:4">
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="1:4">
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:4">
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:4">
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:4">
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="3:3">
+    <row r="12" spans="1:4">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="2:3">
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="2:3">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="7"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="10"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="337" ht="14.25" spans="4:4">
-      <c r="D337" s="11"/>
-    </row>
-    <row r="338" ht="14.25" spans="4:4">
-      <c r="D338" s="11"/>
-    </row>
-    <row r="339" ht="14.25" spans="4:4">
-      <c r="D339" s="11"/>
-    </row>
-    <row r="340" spans="3:3">
-      <c r="C340" s="10"/>
-    </row>
-    <row r="342" spans="3:3">
-      <c r="C342" s="10"/>
-    </row>
-    <row r="343" spans="3:3">
-      <c r="C343" s="10"/>
-    </row>
-    <row r="347" spans="3:3">
-      <c r="C347" s="10"/>
-    </row>
-    <row r="348" spans="3:3">
-      <c r="C348" s="10"/>
-    </row>
-    <row r="349" spans="3:3">
-      <c r="C349" s="10"/>
-    </row>
-    <row r="351" spans="3:3">
-      <c r="C351" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="337" ht="14.25" spans="3:4">
+      <c r="D337" s="12"/>
+    </row>
+    <row r="338" ht="14.25" spans="3:4">
+      <c r="D338" s="12"/>
+    </row>
+    <row r="339" ht="14.25" spans="3:4">
+      <c r="D339" s="12"/>
+    </row>
+    <row r="340" spans="3:4">
+      <c r="C340" s="11"/>
+    </row>
+    <row r="342" spans="3:4">
+      <c r="C342" s="11"/>
+    </row>
+    <row r="343" spans="3:4">
+      <c r="C343" s="11"/>
+    </row>
+    <row r="347" spans="3:4">
+      <c r="C347" s="11"/>
+    </row>
+    <row r="348" spans="3:4">
+      <c r="C348" s="11"/>
+    </row>
+    <row r="349" spans="3:4">
+      <c r="C349" s="11"/>
+    </row>
+    <row r="351" spans="3:4">
+      <c r="C351" s="11"/>
     </row>
     <row r="710" spans="3:3">
-      <c r="C710" s="10"/>
+      <c r="C710" s="11"/>
     </row>
     <row r="711" spans="3:3">
-      <c r="C711" s="10"/>
+      <c r="C711" s="11"/>
     </row>
     <row r="712" spans="3:3">
-      <c r="C712" s="10"/>
+      <c r="C712" s="11"/>
     </row>
     <row r="713" spans="3:3">
-      <c r="C713" s="10"/>
+      <c r="C713" s="11"/>
     </row>
     <row r="714" spans="3:3">
-      <c r="C714" s="10"/>
+      <c r="C714" s="11"/>
     </row>
     <row r="715" spans="3:3">
-      <c r="C715" s="10"/>
+      <c r="C715" s="11"/>
     </row>
     <row r="716" spans="3:3">
-      <c r="C716" s="10"/>
+      <c r="C716" s="11"/>
     </row>
     <row r="717" spans="3:3">
-      <c r="C717" s="10"/>
+      <c r="C717" s="11"/>
     </row>
     <row r="718" spans="3:3">
-      <c r="C718" s="10"/>
+      <c r="C718" s="11"/>
     </row>
     <row r="719" spans="3:3">
-      <c r="C719" s="10"/>
+      <c r="C719" s="11"/>
     </row>
     <row r="720" spans="3:3">
-      <c r="C720" s="10"/>
+      <c r="C720" s="11"/>
     </row>
     <row r="721" spans="3:3">
-      <c r="C721" s="10"/>
+      <c r="C721" s="11"/>
     </row>
     <row r="722" spans="3:3">
-      <c r="C722" s="10"/>
+      <c r="C722" s="11"/>
     </row>
     <row r="723" spans="3:3">
-      <c r="C723" s="10"/>
+      <c r="C723" s="11"/>
     </row>
     <row r="724" spans="3:3">
-      <c r="C724" s="10"/>
+      <c r="C724" s="11"/>
     </row>
     <row r="725" spans="3:3">
-      <c r="C725" s="10"/>
+      <c r="C725" s="11"/>
     </row>
     <row r="726" spans="3:3">
-      <c r="C726" s="10"/>
+      <c r="C726" s="11"/>
     </row>
     <row r="727" spans="3:3">
-      <c r="C727" s="10"/>
+      <c r="C727" s="11"/>
     </row>
     <row r="728" spans="3:3">
-      <c r="C728" s="10"/>
+      <c r="C728" s="11"/>
     </row>
     <row r="729" spans="3:3">
-      <c r="C729" s="10"/>
+      <c r="C729" s="11"/>
     </row>
     <row r="730" spans="3:3">
-      <c r="C730" s="10"/>
+      <c r="C730" s="11"/>
     </row>
     <row r="731" spans="3:3">
-      <c r="C731" s="10"/>
+      <c r="C731" s="11"/>
     </row>
     <row r="732" spans="3:3">
-      <c r="C732" s="10"/>
+      <c r="C732" s="11"/>
     </row>
     <row r="733" spans="3:3">
-      <c r="C733" s="10"/>
+      <c r="C733" s="11"/>
     </row>
     <row r="734" spans="3:3">
-      <c r="C734" s="10"/>
+      <c r="C734" s="11"/>
     </row>
     <row r="735" spans="3:3">
-      <c r="C735" s="10"/>
+      <c r="C735" s="11"/>
     </row>
     <row r="736" spans="3:3">
-      <c r="C736" s="10"/>
+      <c r="C736" s="11"/>
     </row>
     <row r="737" spans="3:3">
-      <c r="C737" s="10"/>
+      <c r="C737" s="11"/>
     </row>
     <row r="738" spans="3:3">
-      <c r="C738" s="10"/>
+      <c r="C738" s="11"/>
     </row>
     <row r="739" spans="3:3">
-      <c r="C739" s="10"/>
+      <c r="C739" s="11"/>
     </row>
     <row r="740" spans="3:3">
-      <c r="C740" s="10"/>
+      <c r="C740" s="11"/>
     </row>
     <row r="741" spans="3:3">
-      <c r="C741" s="10"/>
+      <c r="C741" s="11"/>
     </row>
     <row r="742" spans="3:3">
-      <c r="C742" s="10"/>
+      <c r="C742" s="11"/>
     </row>
     <row r="743" spans="3:3">
-      <c r="C743" s="10"/>
+      <c r="C743" s="11"/>
     </row>
     <row r="744" spans="3:3">
-      <c r="C744" s="10"/>
+      <c r="C744" s="11"/>
     </row>
     <row r="745" spans="3:3">
-      <c r="C745" s="10"/>
+      <c r="C745" s="11"/>
     </row>
     <row r="3157" ht="14.25" spans="2:14">
-      <c r="B3157" s="11"/>
-      <c r="C3157" s="11"/>
-      <c r="D3157" s="11"/>
-      <c r="E3157" s="11"/>
-      <c r="F3157" s="11"/>
-      <c r="G3157" s="11"/>
-      <c r="J3157" s="11"/>
-      <c r="L3157" s="11"/>
-      <c r="M3157" s="11"/>
-      <c r="N3157" s="11"/>
+      <c r="B3157" s="12"/>
+      <c r="C3157" s="12"/>
+      <c r="D3157" s="12"/>
+      <c r="E3157" s="12"/>
+      <c r="F3157" s="12"/>
+      <c r="G3157" s="12"/>
+      <c r="J3157" s="12"/>
+      <c r="L3157" s="12"/>
+      <c r="M3157" s="12"/>
+      <c r="N3157" s="12"/>
     </row>
     <row r="3158" ht="14.25" spans="2:14">
-      <c r="B3158" s="11"/>
-      <c r="C3158" s="11"/>
-      <c r="D3158" s="11"/>
-      <c r="E3158" s="11"/>
-      <c r="F3158" s="11"/>
-      <c r="G3158" s="11"/>
-      <c r="J3158" s="11"/>
-      <c r="L3158" s="11"/>
-      <c r="M3158" s="11"/>
-      <c r="N3158" s="11"/>
+      <c r="B3158" s="12"/>
+      <c r="C3158" s="12"/>
+      <c r="D3158" s="12"/>
+      <c r="E3158" s="12"/>
+      <c r="F3158" s="12"/>
+      <c r="G3158" s="12"/>
+      <c r="J3158" s="12"/>
+      <c r="L3158" s="12"/>
+      <c r="M3158" s="12"/>
+      <c r="N3158" s="12"/>
     </row>
     <row r="3159" ht="14.25" spans="2:14">
-      <c r="B3159" s="11"/>
-      <c r="C3159" s="11"/>
-      <c r="E3159" s="11"/>
-      <c r="F3159" s="11"/>
-      <c r="G3159" s="11"/>
-      <c r="J3159" s="11"/>
-      <c r="L3159" s="11"/>
-      <c r="M3159" s="11"/>
-      <c r="N3159" s="11"/>
+      <c r="B3159" s="12"/>
+      <c r="C3159" s="12"/>
+      <c r="E3159" s="12"/>
+      <c r="F3159" s="12"/>
+      <c r="G3159" s="12"/>
+      <c r="J3159" s="12"/>
+      <c r="L3159" s="12"/>
+      <c r="M3159" s="12"/>
+      <c r="N3159" s="12"/>
     </row>
     <row r="3160" ht="14.25" spans="2:14">
-      <c r="B3160" s="11"/>
-      <c r="C3160" s="11"/>
-      <c r="E3160" s="11"/>
-      <c r="F3160" s="11"/>
-      <c r="G3160" s="11"/>
-      <c r="J3160" s="11"/>
-      <c r="L3160" s="11"/>
-      <c r="M3160" s="11"/>
-      <c r="N3160" s="11"/>
+      <c r="B3160" s="12"/>
+      <c r="C3160" s="12"/>
+      <c r="E3160" s="12"/>
+      <c r="F3160" s="12"/>
+      <c r="G3160" s="12"/>
+      <c r="J3160" s="12"/>
+      <c r="L3160" s="12"/>
+      <c r="M3160" s="12"/>
+      <c r="N3160" s="12"/>
     </row>
     <row r="3161" ht="14.25" spans="2:14">
-      <c r="B3161" s="11"/>
-      <c r="C3161" s="11"/>
-      <c r="D3161" s="11"/>
-      <c r="E3161" s="11"/>
-      <c r="F3161" s="11"/>
-      <c r="G3161" s="11"/>
-      <c r="J3161" s="11"/>
-      <c r="L3161" s="11"/>
-      <c r="M3161" s="11"/>
-      <c r="N3161" s="11"/>
+      <c r="B3161" s="12"/>
+      <c r="C3161" s="12"/>
+      <c r="D3161" s="12"/>
+      <c r="E3161" s="12"/>
+      <c r="F3161" s="12"/>
+      <c r="G3161" s="12"/>
+      <c r="J3161" s="12"/>
+      <c r="L3161" s="12"/>
+      <c r="M3161" s="12"/>
+      <c r="N3161" s="12"/>
     </row>
     <row r="3162" ht="14.25" spans="2:14">
-      <c r="B3162" s="11"/>
-      <c r="C3162" s="11"/>
-      <c r="D3162" s="11"/>
-      <c r="E3162" s="11"/>
-      <c r="F3162" s="11"/>
-      <c r="G3162" s="11"/>
-      <c r="J3162" s="11"/>
-      <c r="L3162" s="11"/>
-      <c r="M3162" s="11"/>
-      <c r="N3162" s="11"/>
+      <c r="B3162" s="12"/>
+      <c r="C3162" s="12"/>
+      <c r="D3162" s="12"/>
+      <c r="E3162" s="12"/>
+      <c r="F3162" s="12"/>
+      <c r="G3162" s="12"/>
+      <c r="J3162" s="12"/>
+      <c r="L3162" s="12"/>
+      <c r="M3162" s="12"/>
+      <c r="N3162" s="12"/>
     </row>
     <row r="3163" ht="14.25" spans="2:14">
-      <c r="B3163" s="11"/>
-      <c r="C3163" s="11"/>
-      <c r="D3163" s="11"/>
-      <c r="E3163" s="11"/>
-      <c r="F3163" s="11"/>
-      <c r="G3163" s="11"/>
-      <c r="J3163" s="11"/>
-      <c r="L3163" s="11"/>
-      <c r="M3163" s="11"/>
-      <c r="N3163" s="11"/>
+      <c r="B3163" s="12"/>
+      <c r="C3163" s="12"/>
+      <c r="D3163" s="12"/>
+      <c r="E3163" s="12"/>
+      <c r="F3163" s="12"/>
+      <c r="G3163" s="12"/>
+      <c r="J3163" s="12"/>
+      <c r="L3163" s="12"/>
+      <c r="M3163" s="12"/>
+      <c r="N3163" s="12"/>
     </row>
     <row r="3164" ht="14.25" spans="2:14">
-      <c r="B3164" s="11"/>
-      <c r="C3164" s="11"/>
-      <c r="D3164" s="11"/>
-      <c r="E3164" s="11"/>
-      <c r="F3164" s="11"/>
-      <c r="G3164" s="11"/>
-      <c r="J3164" s="11"/>
-      <c r="L3164" s="11"/>
-      <c r="M3164" s="11"/>
-      <c r="N3164" s="11"/>
+      <c r="B3164" s="12"/>
+      <c r="C3164" s="12"/>
+      <c r="D3164" s="12"/>
+      <c r="E3164" s="12"/>
+      <c r="F3164" s="12"/>
+      <c r="G3164" s="12"/>
+      <c r="J3164" s="12"/>
+      <c r="L3164" s="12"/>
+      <c r="M3164" s="12"/>
+      <c r="N3164" s="12"/>
     </row>
     <row r="3165" ht="14.25" spans="2:14">
-      <c r="B3165" s="11"/>
-      <c r="C3165" s="11"/>
-      <c r="D3165" s="11"/>
-      <c r="E3165" s="11"/>
-      <c r="F3165" s="11"/>
-      <c r="G3165" s="11"/>
-      <c r="J3165" s="11"/>
-      <c r="L3165" s="11"/>
-      <c r="M3165" s="11"/>
-      <c r="N3165" s="11"/>
+      <c r="B3165" s="12"/>
+      <c r="C3165" s="12"/>
+      <c r="D3165" s="12"/>
+      <c r="E3165" s="12"/>
+      <c r="F3165" s="12"/>
+      <c r="G3165" s="12"/>
+      <c r="J3165" s="12"/>
+      <c r="L3165" s="12"/>
+      <c r="M3165" s="12"/>
+      <c r="N3165" s="12"/>
     </row>
     <row r="3166" ht="14.25" spans="2:14">
-      <c r="B3166" s="11"/>
-      <c r="C3166" s="11"/>
-      <c r="D3166" s="11"/>
-      <c r="E3166" s="11"/>
-      <c r="F3166" s="11"/>
-      <c r="G3166" s="11"/>
-      <c r="J3166" s="11"/>
-      <c r="L3166" s="11"/>
-      <c r="M3166" s="11"/>
-      <c r="N3166" s="11"/>
+      <c r="B3166" s="12"/>
+      <c r="C3166" s="12"/>
+      <c r="D3166" s="12"/>
+      <c r="E3166" s="12"/>
+      <c r="F3166" s="12"/>
+      <c r="G3166" s="12"/>
+      <c r="J3166" s="12"/>
+      <c r="L3166" s="12"/>
+      <c r="M3166" s="12"/>
+      <c r="N3166" s="12"/>
     </row>
     <row r="3167" ht="14.25" spans="2:14">
-      <c r="B3167" s="11"/>
-      <c r="C3167" s="11"/>
-      <c r="D3167" s="11"/>
-      <c r="E3167" s="11"/>
-      <c r="F3167" s="11"/>
-      <c r="G3167" s="11"/>
-      <c r="J3167" s="11"/>
-      <c r="L3167" s="11"/>
-      <c r="M3167" s="11"/>
-      <c r="N3167" s="11"/>
+      <c r="B3167" s="12"/>
+      <c r="C3167" s="12"/>
+      <c r="D3167" s="12"/>
+      <c r="E3167" s="12"/>
+      <c r="F3167" s="12"/>
+      <c r="G3167" s="12"/>
+      <c r="J3167" s="12"/>
+      <c r="L3167" s="12"/>
+      <c r="M3167" s="12"/>
+      <c r="N3167" s="12"/>
     </row>
     <row r="3168" ht="14.25" spans="2:14">
-      <c r="B3168" s="11"/>
-      <c r="C3168" s="11"/>
-      <c r="D3168" s="11"/>
-      <c r="E3168" s="11"/>
-      <c r="F3168" s="11"/>
-      <c r="G3168" s="11"/>
-      <c r="J3168" s="11"/>
-      <c r="L3168" s="11"/>
-      <c r="M3168" s="11"/>
-      <c r="N3168" s="11"/>
+      <c r="B3168" s="12"/>
+      <c r="C3168" s="12"/>
+      <c r="D3168" s="12"/>
+      <c r="E3168" s="12"/>
+      <c r="F3168" s="12"/>
+      <c r="G3168" s="12"/>
+      <c r="J3168" s="12"/>
+      <c r="L3168" s="12"/>
+      <c r="M3168" s="12"/>
+      <c r="N3168" s="12"/>
     </row>
     <row r="3169" ht="14.25" spans="2:14">
-      <c r="B3169" s="11"/>
-      <c r="C3169" s="11"/>
-      <c r="D3169" s="11"/>
-      <c r="E3169" s="11"/>
-      <c r="F3169" s="11"/>
-      <c r="G3169" s="11"/>
-      <c r="J3169" s="11"/>
-      <c r="L3169" s="11"/>
-      <c r="M3169" s="11"/>
-      <c r="N3169" s="11"/>
+      <c r="B3169" s="12"/>
+      <c r="C3169" s="12"/>
+      <c r="D3169" s="12"/>
+      <c r="E3169" s="12"/>
+      <c r="F3169" s="12"/>
+      <c r="G3169" s="12"/>
+      <c r="J3169" s="12"/>
+      <c r="L3169" s="12"/>
+      <c r="M3169" s="12"/>
+      <c r="N3169" s="12"/>
     </row>
     <row r="3170" ht="14.25" spans="2:14">
-      <c r="B3170" s="11"/>
-      <c r="C3170" s="11"/>
-      <c r="D3170" s="11"/>
-      <c r="E3170" s="11"/>
-      <c r="F3170" s="11"/>
-      <c r="G3170" s="11"/>
-      <c r="J3170" s="11"/>
-      <c r="L3170" s="11"/>
-      <c r="M3170" s="11"/>
-      <c r="N3170" s="11"/>
+      <c r="B3170" s="12"/>
+      <c r="C3170" s="12"/>
+      <c r="D3170" s="12"/>
+      <c r="E3170" s="12"/>
+      <c r="F3170" s="12"/>
+      <c r="G3170" s="12"/>
+      <c r="J3170" s="12"/>
+      <c r="L3170" s="12"/>
+      <c r="M3170" s="12"/>
+      <c r="N3170" s="12"/>
     </row>
     <row r="3171" ht="14.25" spans="2:14">
-      <c r="B3171" s="11"/>
-      <c r="C3171" s="11"/>
-      <c r="D3171" s="11"/>
-      <c r="E3171" s="11"/>
-      <c r="F3171" s="11"/>
-      <c r="G3171" s="11"/>
-      <c r="J3171" s="11"/>
-      <c r="L3171" s="11"/>
-      <c r="M3171" s="11"/>
-      <c r="N3171" s="11"/>
+      <c r="B3171" s="12"/>
+      <c r="C3171" s="12"/>
+      <c r="D3171" s="12"/>
+      <c r="E3171" s="12"/>
+      <c r="F3171" s="12"/>
+      <c r="G3171" s="12"/>
+      <c r="J3171" s="12"/>
+      <c r="L3171" s="12"/>
+      <c r="M3171" s="12"/>
+      <c r="N3171" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B339:C3155">
@@ -1723,6 +1743,10 @@
       <formula1>"FalseAlarm,Trouble"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId3" display="https://gitcode.com/Ascend/msmodelslim"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://ai.meta.com/static-resource/movie-gen-research-paper"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter/>
